--- a/document/站长助手checklist.xlsx
+++ b/document/站长助手checklist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,18 @@
   </si>
   <si>
     <t>当我们的服务器压力很大时，用户是否可以正常使用我们的软件管理他们的服务器？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的域名abc.com创建成功后，是否设置了abc_com_access.log格式的日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的域名abc.com创建成功后，是否设置了abc_com_error.log格式的日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户使用一键备份功能后，如何进行网站的还原？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,6 +390,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,15 +406,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A72"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -714,24 +726,24 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -746,7 +758,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1"/>
@@ -755,139 +767,139 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="8"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="8"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="8"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="8"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="8"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="8"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="8"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="8"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="8"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="8"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="8"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="8"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="8"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="8"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="8"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="1"/>
@@ -896,270 +908,280 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="5"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="5"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="5"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="5"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="5"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="5"/>
+      <c r="A41" s="8"/>
       <c r="C41" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="5"/>
+      <c r="A42" s="8"/>
       <c r="C42" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="5"/>
+      <c r="A43" s="8"/>
       <c r="C43" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="5"/>
+      <c r="A44" s="8"/>
       <c r="C44" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="5"/>
+      <c r="A45" s="8"/>
       <c r="C45" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="5"/>
-      <c r="C46" s="6" t="s">
+      <c r="A46" s="8"/>
+      <c r="C46" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="5"/>
-      <c r="C47" s="6" t="s">
+      <c r="A47" s="8"/>
+      <c r="C47" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="5"/>
-      <c r="C48" s="6" t="s">
+      <c r="A48" s="8"/>
+      <c r="C48" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="5"/>
-      <c r="C49" s="6" t="s">
+      <c r="A49" s="8"/>
+      <c r="C49" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="5"/>
-      <c r="C50" s="6" t="s">
+      <c r="A50" s="8"/>
+      <c r="C50" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="5"/>
-      <c r="C51" s="6" t="s">
+      <c r="A51" s="8"/>
+      <c r="C51" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="5"/>
-      <c r="C52" s="6" t="s">
+      <c r="A52" s="8"/>
+      <c r="C52" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="5"/>
-      <c r="C53" s="6" t="s">
+      <c r="A53" s="8"/>
+      <c r="C53" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="5"/>
-      <c r="C54" s="6" t="s">
+      <c r="A54" s="8"/>
+      <c r="C54" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="5"/>
-      <c r="C55" s="6" t="s">
+      <c r="A55" s="8"/>
+      <c r="C55" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="5"/>
-      <c r="C56" s="6" t="s">
+      <c r="A56" s="8"/>
+      <c r="C56" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="5"/>
-      <c r="C57" s="6" t="s">
+      <c r="A57" s="8"/>
+      <c r="C57" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="5"/>
-      <c r="C58" s="6" t="s">
+      <c r="A58" s="8"/>
+      <c r="C58" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="5"/>
-      <c r="C59" s="6" t="s">
+      <c r="A59" s="8"/>
+      <c r="C59" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="5"/>
-      <c r="C60" s="6" t="s">
+      <c r="A60" s="8"/>
+      <c r="C60" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="5"/>
-      <c r="C61" s="6" t="s">
+      <c r="A61" s="8"/>
+      <c r="C61" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="5"/>
-      <c r="C62" s="6" t="s">
+      <c r="A62" s="8"/>
+      <c r="C62" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="5"/>
-      <c r="C63" s="6" t="s">
+      <c r="A63" s="8"/>
+      <c r="C63" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="5"/>
-      <c r="C64" s="6" t="s">
+      <c r="A64" s="8"/>
+      <c r="C64" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="5"/>
-      <c r="C65" s="6" t="s">
+      <c r="A65" s="8"/>
+      <c r="C65" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="5"/>
-      <c r="C66" s="6" t="s">
+      <c r="A66" s="8"/>
+      <c r="C66" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="5"/>
-      <c r="C67" s="6" t="s">
+      <c r="A67" s="8"/>
+      <c r="C67" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="5"/>
-      <c r="C68" s="6" t="s">
+      <c r="A68" s="8"/>
+      <c r="C68" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="5"/>
-      <c r="C69" s="6" t="s">
+      <c r="A69" s="8"/>
+      <c r="C69" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="5"/>
-      <c r="C70" s="6" t="s">
+      <c r="A70" s="8"/>
+      <c r="C70" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="5"/>
-      <c r="C71" s="6" t="s">
+      <c r="A71" s="8"/>
+      <c r="C71" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="5"/>
-      <c r="C72" s="6" t="s">
+      <c r="A72" s="8"/>
+      <c r="C72" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="C73" s="7"/>
+      <c r="C73" s="4"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="C74" s="7"/>
+      <c r="C74" s="4"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="C75" s="7"/>
+      <c r="C75" s="4"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="C76" s="7"/>
+      <c r="C76" s="4"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="C77" s="7"/>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="C78" s="7"/>
+      <c r="C78" s="4"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="C79" s="7"/>
+      <c r="C79" s="4"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="C80" s="7"/>
+      <c r="C80" s="4"/>
     </row>
     <row r="81" spans="3:3">
-      <c r="C81" s="7"/>
+      <c r="C81" s="4"/>
     </row>
     <row r="82" spans="3:3">
-      <c r="C82" s="7"/>
+      <c r="C82" s="4"/>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="7"/>
+      <c r="C83" s="4"/>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="113" spans="3:3">
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="116" spans="3:3">
       <c r="C116" t="s">
         <v>53</v>
@@ -1223,6 +1245,11 @@
     <row r="134" spans="3:3">
       <c r="C134" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/document/站长助手checklist.xlsx
+++ b/document/站长助手checklist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,6 +299,58 @@
   </si>
   <si>
     <t>用户使用一键备份功能后，如何进行网站的还原？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当网站代码出现安全漏洞时，我们如何通知到用户？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户使用站长助手安装LAMP环境时，安装文件从哪里下载？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何缩短用户下载文件的时间？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站长助手本身如何进行升级？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何建立我们的用户社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑客暴力破解了站长助手之后，在执行危险操作时，是否需要设定短信验证码，进行安全验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何保存用户使用站长助手做的操作的记录，例如xx从Ipxx登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们如何防范恶意蜘蛛？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当用户的服务器系统负载很高时，如何处理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用inotify防范用户网站被篡改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当用户需要修改网站代码时，如何修改可以让防篡改系统放行修改后的代码？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何防范php图片木马？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于云主机用户，如何方便的添加数据盘，实现数据盘的自动化分区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1141,10 +1193,14 @@
       <c r="C74" s="4"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="C75" s="4"/>
+      <c r="C75" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="C76" s="4"/>
+      <c r="C76" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="77" spans="1:3">
       <c r="C77" s="4"/>
@@ -1172,6 +1228,26 @@
         <v>32</v>
       </c>
     </row>
+    <row r="107" spans="3:3">
+      <c r="C107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="113" spans="3:3">
       <c r="C113" t="s">
         <v>68</v>
@@ -1250,6 +1326,41 @@
     <row r="139" spans="3:3">
       <c r="C139" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/document/站长助手checklist.xlsx
+++ b/document/站长助手checklist.xlsx
@@ -1,378 +1,304 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="16608" windowHeight="9432"/>
+    <workbookView windowWidth="18160" windowHeight="5700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>检查清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>登录帐号是否容易被破解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>验证码是否可以一定程度保护帐号免于被暴力破解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否支持当某一个IP连续登录失败5次以后，自动禁止来自此IP的登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第一次使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第一次登陆后，是否需要一个类似路由器的初始化引导界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首页的功能列表是否需要调整为用户常用的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户常用的功能会有哪些</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首页显示的防护日志是否可以继续改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首页显示系统负载的地方是否可以添加报警功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以在首页显示服务器安全指数</t>
+  </si>
+  <si>
+    <t>检测系统的版本？</t>
   </si>
   <si>
     <t>一键LAMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户系统为干净的系统时，安装过程是否顺利无错？</t>
   </si>
   <si>
     <t>用户系统为32位时是否可以顺利安装？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户系统为64位时是否可以顺利安装？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前我们测试过的ubuntu的系统版本是多少？</t>
   </si>
   <si>
     <t>目前我们测试过的centos的系统版本是多少？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前我们测试过的ubuntu的系统版本是多少？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当用户系统已经使用rpm方式安装过apache 时，我们是否可以处理？</t>
   </si>
   <si>
     <t>当用户系统已经使用rpm方式安装过php 时，我们是否可以处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当用户系统已经使用rpm方式安装过mysql 时，我们是否可以处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当用户系统已经使用rpm方式安装过apache 时，我们是否可以处理？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当用户系统已经使用源码安装方式安装过apache 时，我们是否可以处理？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当用户系统已经使用源码安装方式安装过php 时，我们是否可以处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当用户系统已经使用源码安装方式安装过mysql 时，我们是否可以处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当用户系统使用wdcp部署过lamp环境时，我们是否可以接管用户的lamp环境？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当用户使用lumanager部署过lamp环境时，我们是否可以接管用户的lamp环境？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当用户使用amh部署过lamp环境时，我们是否可以接管用户的LAMP环境？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我们安装的php的版本是多少？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当用户的程序需要php 5.2的版本时，我们能否处理？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在用户的安装过程之后，显示的幻灯片是否足够让用户对我们产生信任？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户安装过程中，出现了意外错误，我们能否处理？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>程序的下载过程中，如果出现了断网，我们能否处理？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们安装的apache版本是多少？</t>
+  </si>
+  <si>
+    <t>我们安装的apache，做了哪些安全优化？</t>
+  </si>
+  <si>
+    <t>我们安装的apache，做了哪些性能优化？</t>
+  </si>
+  <si>
+    <t>我们安装的apache，是否可以开机启动?</t>
+  </si>
+  <si>
+    <t>我们安装的mysql，是否可以开机启动？</t>
+  </si>
+  <si>
+    <t>我们安装的mysql，默认编码格式是多少？</t>
+  </si>
+  <si>
+    <t>我们安装的php，默认做了哪些安全优化？</t>
+  </si>
+  <si>
+    <t>我们安装的php，做了哪些性能优化？</t>
+  </si>
+  <si>
+    <t>当apache出现漏洞时，我们能否处理？</t>
+  </si>
+  <si>
+    <t>当php出现漏洞时，我们能否处理？</t>
+  </si>
+  <si>
+    <t>我们安装的apache，是否做了日志自动分割？</t>
+  </si>
+  <si>
+    <t>我们安装的mysql，默认缓存大小是多少？</t>
+  </si>
+  <si>
+    <t>我们安装的mysql是否需要做性能优化？</t>
+  </si>
+  <si>
+    <t>我们是否需要根据用户的服务器的内存配置，对mysql进行优化？</t>
+  </si>
+  <si>
+    <t>mysql是否开启了慢查询日志？</t>
+  </si>
+  <si>
+    <t>我们是否需要做mysql的优化工作？</t>
+  </si>
+  <si>
+    <t>在我们的能力范围内，我们能对mysql做哪些优化？</t>
+  </si>
+  <si>
+    <t>我们安装的apache，是否可以防范域名恶意解析攻击？</t>
+  </si>
+  <si>
+    <t>有哪些不经常用的apache模块可以禁用？</t>
+  </si>
+  <si>
+    <t>我们如何防范恶意蜘蛛？</t>
+  </si>
+  <si>
+    <t>当用户的服务器系统负载很高时，如何处理？</t>
   </si>
   <si>
     <t>用户是否需要nginx作为前端代理，apache在后端提供服务这种部署方式？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们安装的apache版本是多少？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们安装的apache，做了哪些安全优化？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们安装的apache，做了哪些性能优化？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们安装的apache，是否可以开机启动?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们安装的mysql，是否可以开机启动？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们安装的mysql，默认编码格式是多少？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们安装的php，默认做了哪些安全优化？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们安装的php，做了哪些性能优化？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当apache出现漏洞时，我们能否处理？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当php出现漏洞时，我们能否处理？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们安装的apache，是否做了日志自动分割？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们安装的mysql，默认缓存大小是多少？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们安装的mysql是否需要做性能优化？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们是否需要根据用户的服务器的内存配置，对mysql进行优化？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql是否开启了慢查询日志？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们是否需要做mysql的优化工作？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在我们的能力范围内，我们能对mysql做哪些优化？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们安装的apache，是否可以防范域名恶意解析攻击？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有哪些不经常用的apache模块可以禁用？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可以在首页显示服务器安全指数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用inotify防范用户网站被篡改</t>
+  </si>
+  <si>
+    <t>当用户需要修改网站代码时，如何修改可以让防篡改系统放行修改后的代码？</t>
+  </si>
+  <si>
+    <t>如何防范php图片木马？</t>
+  </si>
+  <si>
+    <t>对于云主机用户，如何方便的添加数据盘，实现数据盘的自动化分区</t>
+  </si>
+  <si>
+    <t>用户的域名abc.com创建成功后，是否设置了abc_com_access.log格式的日志</t>
+  </si>
+  <si>
+    <t>用户的域名abc.com创建成功后，是否设置了abc_com_error.log格式的日志</t>
   </si>
   <si>
     <t>当用户建站成功后，如果没有配置DNS解析，我们能否检测到？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当我们发现用户的域名DNS配置错误时，我们能否给出修改建议？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我们是否需要给出用户的管理域名的网站的链接，例如万网，新网，DNSpod等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我们是否需要推荐用户使用dnspod？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户系统为干净的系统时，安装过程是否顺利无错？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户是否方便上传网站代码？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户上传的代码是否需要进行webshell检测？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测系统的版本？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>配置网站域名的alias 别名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>如何让用户方便的分享？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>如何统计用户的服务器的地域范围？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>如何知道我们的安装量？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>如何知道有多少域名使用我们的系统进行管理建站？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当站长助手和我们的服务器进行通信时，我们的服务器能承载多大的压力？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当我们的服务器压力很大时，用户是否可以正常使用我们的软件管理他们的服务器？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户的域名abc.com创建成功后，是否设置了abc_com_access.log格式的日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户的域名abc.com创建成功后，是否设置了abc_com_error.log格式的日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户使用一键备份功能后，如何进行网站的还原？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当网站代码出现安全漏洞时，我们如何通知到用户？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户使用站长助手安装LAMP环境时，安装文件从哪里下载？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>如何缩短用户下载文件的时间？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>站长助手本身如何进行升级？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>如何建立我们的用户社区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黑客暴力破解了站长助手之后，在执行危险操作时，是否需要设定短信验证码，进行安全验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>如何保存用户使用站长助手做的操作的记录，例如xx从Ipxx登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们如何防范恶意蜘蛛？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当用户的服务器系统负载很高时，如何处理？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用inotify防范用户网站被篡改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当用户需要修改网站代码时，如何修改可以让防篡改系统放行修改后的代码？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何防范php图片木马？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于云主机用户，如何方便的添加数据盘，实现数据盘的自动化分区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lnmp_info</t>
+  </si>
+  <si>
+    <t>用于检测rpm或make安装的LNMP环境：1、默认只考虑了最多进行了一次编译安装
+2、该脚本只是在CentOS6.3 x86_64上运行</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -427,29 +353,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,17 +389,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -515,69 +456,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -710,8 +653,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -747,25 +690,67 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.775" customWidth="1"/>
+    <col min="2" max="2" width="20.775" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -778,7 +763,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
@@ -787,14 +772,14 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -810,7 +795,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1"/>
@@ -819,548 +804,556 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2"/>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="5"/>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="5"/>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="5"/>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="5"/>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5"/>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="5"/>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="5"/>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="5"/>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="5"/>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="5"/>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="5"/>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3"/>
       <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="7" t="s">
-        <v>13</v>
+      <c r="A35" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="8"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="8"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="8"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="8"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="8"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="8"/>
+      <c r="A41" s="4"/>
       <c r="C41" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="8"/>
+      <c r="A42" s="4"/>
       <c r="C42" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="8"/>
+      <c r="A43" s="4"/>
       <c r="C43" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="8"/>
+      <c r="A44" s="4"/>
       <c r="C44" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="8"/>
+      <c r="A45" s="4"/>
       <c r="C45" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="8"/>
-      <c r="C46" s="3" t="s">
-        <v>24</v>
+      <c r="A46" s="4"/>
+      <c r="C46" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="8"/>
-      <c r="C47" s="3" t="s">
-        <v>25</v>
+      <c r="A47" s="4"/>
+      <c r="C47" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="8"/>
-      <c r="C48" s="3" t="s">
-        <v>26</v>
+      <c r="A48" s="4"/>
+      <c r="C48" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="8"/>
-      <c r="C49" s="3" t="s">
-        <v>27</v>
+      <c r="A49" s="4"/>
+      <c r="C49" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="8"/>
-      <c r="C50" s="3" t="s">
-        <v>28</v>
+      <c r="A50" s="4"/>
+      <c r="C50" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="8"/>
-      <c r="C51" s="3" t="s">
-        <v>29</v>
+      <c r="A51" s="4"/>
+      <c r="C51" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="8"/>
-      <c r="C52" s="3" t="s">
-        <v>30</v>
+      <c r="A52" s="4"/>
+      <c r="C52" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="8"/>
-      <c r="C53" s="3" t="s">
-        <v>31</v>
+      <c r="A53" s="4"/>
+      <c r="C53" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="8"/>
-      <c r="C54" s="3" t="s">
-        <v>33</v>
+      <c r="A54" s="4"/>
+      <c r="C54" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="8"/>
-      <c r="C55" s="3" t="s">
-        <v>34</v>
+      <c r="A55" s="4"/>
+      <c r="C55" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="8"/>
-      <c r="C56" s="3" t="s">
-        <v>35</v>
+      <c r="A56" s="4"/>
+      <c r="C56" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="8"/>
-      <c r="C57" s="3" t="s">
-        <v>36</v>
+      <c r="A57" s="4"/>
+      <c r="C57" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="8"/>
-      <c r="C58" s="3" t="s">
-        <v>37</v>
+      <c r="A58" s="4"/>
+      <c r="C58" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="8"/>
-      <c r="C59" s="3" t="s">
-        <v>38</v>
+      <c r="A59" s="4"/>
+      <c r="C59" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="8"/>
-      <c r="C60" s="3" t="s">
-        <v>39</v>
+      <c r="A60" s="4"/>
+      <c r="C60" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="8"/>
-      <c r="C61" s="3" t="s">
-        <v>40</v>
+      <c r="A61" s="4"/>
+      <c r="C61" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="8"/>
-      <c r="C62" s="3" t="s">
-        <v>41</v>
+      <c r="A62" s="4"/>
+      <c r="C62" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="8"/>
-      <c r="C63" s="3" t="s">
-        <v>42</v>
+      <c r="A63" s="4"/>
+      <c r="C63" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="8"/>
-      <c r="C64" s="3" t="s">
-        <v>43</v>
+      <c r="A64" s="4"/>
+      <c r="C64" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="8"/>
-      <c r="C65" s="3" t="s">
-        <v>44</v>
+      <c r="A65" s="4"/>
+      <c r="C65" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="8"/>
-      <c r="C66" s="3" t="s">
-        <v>45</v>
+      <c r="A66" s="4"/>
+      <c r="C66" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="8"/>
-      <c r="C67" s="3" t="s">
-        <v>46</v>
+      <c r="A67" s="4"/>
+      <c r="C67" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="8"/>
-      <c r="C68" s="3" t="s">
-        <v>47</v>
+      <c r="A68" s="4"/>
+      <c r="C68" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="8"/>
-      <c r="C69" s="3" t="s">
-        <v>48</v>
+      <c r="A69" s="4"/>
+      <c r="C69" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="8"/>
-      <c r="C70" s="3" t="s">
-        <v>49</v>
+      <c r="A70" s="4"/>
+      <c r="C70" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="8"/>
-      <c r="C71" s="3" t="s">
-        <v>50</v>
+      <c r="A71" s="4"/>
+      <c r="C71" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="8"/>
-      <c r="C72" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="C74" s="4"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="C75" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="C76" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="C77" s="4"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="C80" s="4"/>
+      <c r="A72" s="4"/>
+      <c r="C72" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="6"/>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="6"/>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="6"/>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="6"/>
     </row>
     <row r="81" spans="3:3">
-      <c r="C81" s="4"/>
+      <c r="C81" s="6"/>
     </row>
     <row r="82" spans="3:3">
-      <c r="C82" s="4"/>
+      <c r="C82" s="6"/>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="4"/>
+      <c r="C83" s="6"/>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="3:3">
       <c r="C109" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="3:3">
       <c r="C113" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="3:3">
       <c r="C114" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="116" spans="3:3">
       <c r="C116" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="3:3">
       <c r="C117" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" spans="3:3">
       <c r="C118" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="3:3">
       <c r="C119" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="3:3">
       <c r="C120" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="3:3">
       <c r="C121" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="3:3">
       <c r="C122" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="128" spans="3:3">
       <c r="C128" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="3:3">
       <c r="C129" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="130" spans="3:3">
       <c r="C130" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="131" spans="3:3">
       <c r="C131" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="133" spans="3:3">
       <c r="C133" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="134" spans="3:3">
       <c r="C134" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="3:3">
       <c r="C139" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143" spans="3:3">
       <c r="C143" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="144" spans="3:3">
       <c r="C144" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="145" spans="3:3">
       <c r="C145" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="147" spans="3:3">
       <c r="C147" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="149" spans="3:3">
       <c r="C149" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="156" ht="27" spans="1:3">
+      <c r="A156" t="s">
+        <v>84</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1369,36 +1362,42 @@
     <mergeCell ref="A6:A16"/>
     <mergeCell ref="A35:A72"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>